--- a/metrics/MAPE/upto time/Edema macular diabético (UPTO).xlsx
+++ b/metrics/MAPE/upto time/Edema macular diabético (UPTO).xlsx
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4962939961480.126</v>
+        <v>5195145138011.995</v>
       </c>
       <c r="C3" t="n">
-        <v>5499886357539.316</v>
+        <v>5162430657253.795</v>
       </c>
       <c r="D3" t="n">
-        <v>5646715565549.204</v>
+        <v>5102875497941.103</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5089447474355.72</v>
+        <v>5091338955429.497</v>
       </c>
       <c r="C4" t="n">
-        <v>5283800788557.75</v>
+        <v>5195073721154.484</v>
       </c>
       <c r="D4" t="n">
-        <v>5252547728887.189</v>
+        <v>5066041871369.039</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>147867329079066.5</v>
+        <v>143060269516227.1</v>
       </c>
       <c r="C5" t="n">
-        <v>150805274112453.4</v>
+        <v>292059504726472.4</v>
       </c>
       <c r="D5" t="n">
-        <v>173030006340478.9</v>
+        <v>247811323340900.9</v>
       </c>
     </row>
   </sheetData>
